--- a/Data Visualization - Notes/Excel Training/Excel Formulae Training 21Jan2019.xlsx
+++ b/Data Visualization - Notes/Excel Training/Excel Formulae Training 21Jan2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94992bf6dc30f00d/Desktop/UNIVERSITY/Data Visualization - Notes/Excel Training/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="11_58B9D81021FEEE28335B2EF9B06E4B5FDCAE3DD0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBEE5883-00C8-49FC-8B0A-6D79E68624F7}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="11_58B9D81021FEEE28335B2EF9B06E4B5FDCAE3DD0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEDCB8ED-47A2-4CE3-986A-F92A96E36A65}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,8 +61,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="111">
   <si>
     <t>Sales Manager</t>
   </si>
@@ -432,6 +454,12 @@
   <si>
     <t>MAX</t>
   </si>
+  <si>
+    <t>HLOOKUP</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
 </sst>
 </file>
 
@@ -595,7 +623,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,6 +681,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE8E6DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,7 +979,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1251,6 +1291,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1266,11 +1312,7 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1640,10 +1682,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="123"/>
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
@@ -2258,14 +2300,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="127" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
@@ -2436,15 +2478,15 @@
       <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:15" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
       <c r="I15" s="116" t="s">
         <v>16</v>
       </c>
@@ -2534,7 +2576,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2543,15 +2585,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="99" t="s">
@@ -2719,32 +2761,32 @@
       <c r="A10" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="122">
-        <f>SUM(B3:B7)</f>
+      <c r="B10" s="117">
+        <f t="shared" ref="B10:H10" si="1">SUM(B3:B7)</f>
         <v>0.7</v>
       </c>
-      <c r="C10" s="122">
-        <f>SUM(C3:C7)</f>
+      <c r="C10" s="117">
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="D10" s="122">
-        <f>SUM(D3:D7)</f>
+      <c r="D10" s="117">
+        <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
-      <c r="E10" s="122">
-        <f>SUM(E3:E7)</f>
+      <c r="E10" s="117">
+        <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="F10" s="122">
-        <f>SUM(F3:F7)</f>
+      <c r="F10" s="117">
+        <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="G10" s="122">
-        <f>SUM(G3:G7)</f>
+      <c r="G10" s="117">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="H10" s="122">
-        <f>SUM(H3:H7)</f>
+      <c r="H10" s="117">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
@@ -2752,32 +2794,32 @@
       <c r="A11" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="122">
-        <f>AVERAGE(B3:B7)</f>
+      <c r="B11" s="117">
+        <f t="shared" ref="B11:H11" si="2">AVERAGE(B3:B7)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="C11" s="122">
-        <f>AVERAGE(C3:C7)</f>
+      <c r="C11" s="117">
+        <f t="shared" si="2"/>
         <v>0.13999999999999999</v>
       </c>
-      <c r="D11" s="122">
-        <f>AVERAGE(D3:D7)</f>
+      <c r="D11" s="117">
+        <f t="shared" si="2"/>
         <v>0.13</v>
       </c>
-      <c r="E11" s="122">
-        <f>AVERAGE(E3:E7)</f>
+      <c r="E11" s="117">
+        <f t="shared" si="2"/>
         <v>0.12000000000000002</v>
       </c>
-      <c r="F11" s="122">
-        <f>AVERAGE(F3:F7)</f>
+      <c r="F11" s="117">
+        <f t="shared" si="2"/>
         <v>0.12000000000000002</v>
       </c>
-      <c r="G11" s="122">
-        <f>AVERAGE(G3:G7)</f>
+      <c r="G11" s="117">
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="H11" s="122">
-        <f>AVERAGE(H3:H7)</f>
+      <c r="H11" s="117">
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
     </row>
@@ -2785,32 +2827,32 @@
       <c r="A12" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="122">
-        <f>MIN(B3:B7)</f>
+      <c r="B12" s="117">
+        <f t="shared" ref="B12:H12" si="3">MIN(B3:B7)</f>
         <v>0.09</v>
       </c>
-      <c r="C12" s="122">
-        <f>MIN(C3:C7)</f>
+      <c r="C12" s="117">
+        <f t="shared" si="3"/>
         <v>0.09</v>
       </c>
-      <c r="D12" s="122">
-        <f>MIN(D3:D7)</f>
+      <c r="D12" s="117">
+        <f t="shared" si="3"/>
         <v>0.08</v>
       </c>
-      <c r="E12" s="122">
-        <f>MIN(E3:E7)</f>
+      <c r="E12" s="117">
+        <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F12" s="122">
-        <f>MIN(F3:F7)</f>
+      <c r="F12" s="117">
+        <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G12" s="122">
-        <f>MIN(G3:G7)</f>
+      <c r="G12" s="117">
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="H12" s="122">
-        <f>MIN(H3:H7)</f>
+      <c r="H12" s="117">
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
     </row>
@@ -2818,87 +2860,154 @@
       <c r="A13" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="122">
-        <f>MAX(B3:B7)</f>
+      <c r="B13" s="117">
+        <f t="shared" ref="B13:H13" si="4">MAX(B3:B7)</f>
         <v>0.24</v>
       </c>
-      <c r="C13" s="122">
-        <f>MAX(C3:C7)</f>
+      <c r="C13" s="117">
+        <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
-      <c r="D13" s="122">
-        <f>MAX(D3:D7)</f>
+      <c r="D13" s="117">
+        <f t="shared" si="4"/>
         <v>0.23</v>
       </c>
-      <c r="E13" s="122">
-        <f>MAX(E3:E7)</f>
+      <c r="E13" s="117">
+        <f t="shared" si="4"/>
         <v>0.22</v>
       </c>
-      <c r="F13" s="122">
-        <f>MAX(F3:F7)</f>
+      <c r="F13" s="117">
+        <f t="shared" si="4"/>
         <v>0.22</v>
       </c>
-      <c r="G13" s="122">
-        <f>MAX(G3:G7)</f>
+      <c r="G13" s="117">
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="H13" s="122">
-        <f>MAX(H3:H7)</f>
+      <c r="H13" s="117">
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="125"/>
+      <c r="A16" s="122">
+        <f ca="1">VLOOKUP($A$16,$A$3:$H$7,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="122">
+        <f t="shared" ref="B16:H16" ca="1" si="5">VLOOKUP($A$16,$A$3:$H$7,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="122">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="122">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="122">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="122">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="122">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="122">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="126"/>
+      <c r="A17" s="121"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="126"/>
+      <c r="A18" s="120" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="128">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C19" s="128">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D19" s="128">
+        <v>0.13</v>
+      </c>
+      <c r="E19" s="128">
+        <v>0.12</v>
+      </c>
+      <c r="F19" s="128">
+        <v>0.12</v>
+      </c>
+      <c r="G19" s="128">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="128">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="123"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="123"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="118"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="123"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="123"/>
+      <c r="A21" s="118" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="118"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="123"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="123"/>
+      <c r="A22" s="118"/>
+      <c r="B22" s="119" t="e" cm="1">
+        <f t="array" ref="B22">HLOOK</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C22" s="119">
+        <v>0.24</v>
+      </c>
+      <c r="D22" s="119">
+        <v>0.09</v>
+      </c>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="118"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="123"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="123"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="119">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="118"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
@@ -30054,14 +30163,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="125" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
